--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro De Lucca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro De Lucca\Documents\Insper\2° Semestre\CDados\22-2a-cd-p1-grupo_pedrolscf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C023DE-1701-4CAC-A95D-63CFC11D71C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD1783-8385-45FD-B258-F833C89052F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="3078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="3079">
   <si>
     <t>Categoria</t>
   </si>
@@ -9268,6 +9268,9 @@
   </si>
   <si>
     <t>Resultado Fiscal Estrutural (RFE) de 2021 foi o melhor desde 2008</t>
+  </si>
+  <si>
+    <t>P_Chave</t>
   </si>
 </sst>
 </file>
@@ -9674,8 +9677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9716,6 +9719,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>3078</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -20649,8 +20655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="F302" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20682,6 +20688,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3078</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -28142,6 +28151,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1C0B8B379AB7F4A83B1DF49B257CC00" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8b32a28071c79c2c7df3dc7756a97a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2b213029-6727-4e9a-b9de-76830b0b0eef" xmlns:ns4="369cbb38-375c-4afd-9df0-a0a22bf5ebbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6155791bbb1b4d73defc0a1b7e144eb5" ns3:_="" ns4:_="">
     <xsd:import namespace="2b213029-6727-4e9a-b9de-76830b0b0eef"/>
@@ -28312,36 +28336,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B92549B6-3D84-4529-89A0-A36EEE27D555}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E6356D-7F55-4955-A442-77F2244EA48E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2b213029-6727-4e9a-b9de-76830b0b0eef"/>
-    <ds:schemaRef ds:uri="369cbb38-375c-4afd-9df0-a0a22bf5ebbc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28364,9 +28362,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E6356D-7F55-4955-A442-77F2244EA48E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B92549B6-3D84-4529-89A0-A36EEE27D555}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b213029-6727-4e9a-b9de-76830b0b0eef"/>
+    <ds:schemaRef ds:uri="369cbb38-375c-4afd-9df0-a0a22bf5ebbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>